--- a/table/model.avg/bio_sp_model.avg.xlsx
+++ b/table/model.avg/bio_sp_model.avg.xlsx
@@ -374,17 +374,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>MonthOctober</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242:DRM</t>
+          <t>DRM:MonthOctober</t>
         </is>
       </c>
     </row>
@@ -398,13 +398,13 @@
         <v>1.011984887378266</v>
       </c>
       <c r="C2">
-        <v>0.160972082577142</v>
+        <v>-0.3184594324521494</v>
       </c>
       <c r="D2">
-        <v>-0.3184594324521494</v>
+        <v>0.1609720825771418</v>
       </c>
       <c r="E2">
-        <v>0.6977816868850949</v>
+        <v>0.6977816868850947</v>
       </c>
     </row>
     <row r="3">
@@ -417,13 +417,13 @@
         <v>1.011984887378266</v>
       </c>
       <c r="C3">
-        <v>0.1716313144104529</v>
+        <v>-0.3395471444682089</v>
       </c>
       <c r="D3">
-        <v>-0.3395471444682085</v>
+        <v>0.1716313144104528</v>
       </c>
       <c r="E3">
-        <v>0.7439873186348273</v>
+        <v>0.7439873186348278</v>
       </c>
     </row>
   </sheetData>
@@ -484,13 +484,13 @@
         <v>-25.83004021622049</v>
       </c>
       <c r="D2">
-        <v>63.88230265466319</v>
+        <v>63.88230265466321</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9378945976733623</v>
+        <v>0.9378945976733613</v>
       </c>
     </row>
     <row r="3">
@@ -503,16 +503,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>-32.45595592166236</v>
+        <v>-32.45595592166235</v>
       </c>
       <c r="D3">
-        <v>69.31191184332472</v>
+        <v>69.31191184332471</v>
       </c>
       <c r="E3">
-        <v>5.42960918866153</v>
+        <v>5.429609188661502</v>
       </c>
       <c r="F3">
-        <v>0.06210540232663782</v>
+        <v>0.06210540232663864</v>
       </c>
     </row>
   </sheetData>
@@ -543,31 +543,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cruise</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.9378945976733623</v>
+        <v>0.9378945976733613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.9378945976733623</v>
+        <v>0.9378945976733613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cruise:DRM</t>
+          <t>DRM:Month</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.9378945976733623</v>
+        <v>0.9378945976733613</v>
       </c>
     </row>
   </sheetData>
@@ -640,64 +640,64 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.160972082577142</v>
+        <v>-0.3184594324521495</v>
       </c>
       <c r="C3">
-        <v>0.1958714896299985</v>
+        <v>0.1794652632358572</v>
       </c>
       <c r="D3">
-        <v>0.2040191307567743</v>
+        <v>0.1856718498182165</v>
       </c>
       <c r="E3">
-        <v>0.7890048446929631</v>
+        <v>1.715173478176361</v>
       </c>
       <c r="F3">
-        <v>0.4301092</v>
+        <v>0.0863134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>MonthOctober</t>
         </is>
       </c>
       <c r="B4">
-        <v>-0.3184594324521494</v>
+        <v>0.1609720825771418</v>
       </c>
       <c r="C4">
-        <v>0.179465263235857</v>
+        <v>0.1958714896299985</v>
       </c>
       <c r="D4">
-        <v>0.1856718498182163</v>
+        <v>0.2040191307567743</v>
       </c>
       <c r="E4">
-        <v>1.715173478176363</v>
+        <v>0.7890048446929618</v>
       </c>
       <c r="F4">
-        <v>0.0863134</v>
+        <v>0.4301092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242:DRM</t>
+          <t>DRM:MonthOctober</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.6977816868850949</v>
+        <v>0.6977816868850948</v>
       </c>
       <c r="C5">
-        <v>0.2723399144138767</v>
+        <v>0.2723399144138774</v>
       </c>
       <c r="D5">
-        <v>0.2790992456237926</v>
+        <v>0.2790992456237934</v>
       </c>
       <c r="E5">
-        <v>2.500120289918872</v>
+        <v>2.500120289918865</v>
       </c>
       <c r="F5">
         <v>0.0124151</v>
@@ -773,64 +773,64 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.1716313144104529</v>
+        <v>-0.3395471444682089</v>
       </c>
       <c r="C3">
-        <v>0.1976782089173954</v>
+        <v>0.1648643067047139</v>
       </c>
       <c r="D3">
-        <v>0.2062779396308321</v>
+        <v>0.1720365117225691</v>
       </c>
       <c r="E3">
-        <v>0.8320391153683958</v>
+        <v>1.973692334658425</v>
       </c>
       <c r="F3">
-        <v>0.4053869</v>
+        <v>0.0484167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>MonthOctober</t>
         </is>
       </c>
       <c r="B4">
-        <v>-0.3395471444682085</v>
+        <v>0.1716313144104528</v>
       </c>
       <c r="C4">
-        <v>0.1648643067047139</v>
+        <v>0.1976782089173954</v>
       </c>
       <c r="D4">
-        <v>0.1720365117225691</v>
+        <v>0.2062779396308321</v>
       </c>
       <c r="E4">
-        <v>1.973692334658423</v>
+        <v>0.8320391153683951</v>
       </c>
       <c r="F4">
-        <v>0.0484167</v>
+        <v>0.4053869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242:DRM</t>
+          <t>DRM:MonthOctober</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.7439873186348273</v>
+        <v>0.7439873186348279</v>
       </c>
       <c r="C5">
-        <v>0.2114330664664521</v>
+        <v>0.2114330664664522</v>
       </c>
       <c r="D5">
-        <v>0.2206311841825402</v>
+        <v>0.2206311841825403</v>
       </c>
       <c r="E5">
-        <v>3.372085960519915</v>
+        <v>3.372085960519917</v>
       </c>
       <c r="F5">
         <v>0.000746</v>
